--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -356,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -656,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1129,7 +1138,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5861506597</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.5861506597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1193,7 +1202,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.592546331</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1225,7 +1234,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45914.592546331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1257,7 +1266,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5954520023</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1289,7 +1298,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.5954520023</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1321,7 +1330,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1353,7 +1362,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1385,7 +1394,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45909.4222365741</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1417,7 +1426,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1449,7 +1458,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1477,9 +1486,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6318809375</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1496,6 +1507,36 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="3">
+        <x:v>45914.6318809375</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240191</x:t>
   </x:si>
   <x:si>
@@ -136,15 +145,6 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمود نجاح مكاوى خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -752,9 +752,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45916.3974413194</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -777,16 +779,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="3">
-        <x:v>45914.6342202546</x:v>
+        <x:v>45916.3974413194</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -818,7 +818,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45914.6342202546</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -850,7 +850,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -882,7 +882,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45916.3963254977</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -914,7 +914,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45916.3963254977</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -946,7 +946,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -978,7 +978,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1010,7 +1010,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1042,7 +1042,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6668022338</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1074,7 +1074,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6311620718</x:v>
+        <x:v>45914.6668022338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1106,7 +1106,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5931095255</x:v>
+        <x:v>45914.6311620718</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45914.5931095255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -57,15 +57,6 @@
     <x:t>ِAhmed Taha  Ahmed Taha Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240024</x:t>
   </x:si>
   <x:si>
@@ -129,15 +120,6 @@
     <x:t>Abdelrahman Mohamed Moharam mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>1240233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن صابر على على حسب الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Saber Aly Aly Hassaballah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240334</x:t>
   </x:si>
   <x:si>
@@ -156,6 +138,15 @@
     <x:t>Omar ayman Mohamed neged</x:t>
   </x:si>
   <x:si>
+    <x:t>1240112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد كمال خيرى السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar mohamed kamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240117</x:t>
   </x:si>
   <x:si>
@@ -190,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
   </x:si>
   <x:si>
     <x:t>1240186</x:t>
@@ -818,7 +818,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.6342202546</x:v>
+        <x:v>45927.5045601852</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -850,7 +850,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -882,7 +882,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45916.3963254977</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -914,7 +914,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45916.3963254977</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -946,7 +946,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -978,7 +978,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1010,7 +1010,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1042,7 +1042,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45914.6668022338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1074,7 +1074,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6668022338</x:v>
+        <x:v>45914.5931095255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1106,7 +1106,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6311620718</x:v>
+        <x:v>45914.5861506597</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5931095255</x:v>
+        <x:v>45927.5541393519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1170,7 +1170,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5861506597</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1202,7 +1202,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.592546331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1234,7 +1234,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.592546331</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1266,7 +1266,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45914.5954520023</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1298,7 +1298,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5954520023</x:v>
+        <x:v>45927.4558114236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,15 +208,6 @@
   </x:si>
   <x:si>
     <x:t>Moaz Ahmed Mohamed Hamdi Ibrahim Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
   </x:si>
   <x:si>
     <x:t>1240156</x:t>
@@ -365,7 +356,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +656,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1394,7 +1385,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,7 +1417,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1458,7 +1449,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1486,11 +1477,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6318809375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1507,36 +1496,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s"/>
-      <x:c r="E26" s="3">
-        <x:v>45914.6318809375</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Ahmed Mohamed Hamdi Ibrahim Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
   </x:si>
   <x:si>
     <x:t>1240156</x:t>
@@ -356,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -656,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1385,7 +1394,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45929.5513767361</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1417,7 +1426,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1449,7 +1458,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1477,9 +1486,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6318809375</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1496,6 +1507,36 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="3">
+        <x:v>45914.6318809375</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -181,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240364</x:t>
@@ -365,7 +374,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1298,7 +1307,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4558114236</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1330,7 +1339,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45927.4558114236</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1362,7 +1371,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1394,7 +1403,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.5513767361</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,7 +1435,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45929.5513767361</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1458,7 +1467,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1490,7 +1499,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1518,9 +1527,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6318809375</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1537,6 +1548,36 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s"/>
+      <x:c r="E27" s="3">
+        <x:v>45914.6318809375</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر أيمن محمد نجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ayman Mohamed neged</x:t>
   </x:si>
   <x:si>
     <x:t>1240112</x:t>
@@ -374,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1115,7 +1106,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5861506597</x:v>
+        <x:v>45927.5541393519</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1147,7 +1138,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.5541393519</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45914.592546331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.592546331</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1243,7 +1234,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45914.5954520023</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1275,7 +1266,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5954520023</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1307,7 +1298,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45927.4558114236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1339,7 +1330,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4558114236</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1371,7 +1362,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1403,7 +1394,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45929.5513767361</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1435,7 +1426,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45929.5513767361</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1467,7 +1458,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1499,7 +1490,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1527,11 +1518,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6318809375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1548,36 +1537,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s"/>
-      <x:c r="E27" s="3">
-        <x:v>45914.6318809375</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35287.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35287.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240364</x:t>
@@ -365,7 +356,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +656,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1266,7 +1257,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45927.4558114236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1298,7 +1289,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4558114236</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1330,7 +1321,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45914.6298201736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1362,7 +1353,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6298201736</x:v>
+        <x:v>45929.5513767361</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1394,7 +1385,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.5513767361</x:v>
+        <x:v>45914.6660854167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,7 +1417,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6660854167</x:v>
+        <x:v>45914.6596047454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1458,7 +1449,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6596047454</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1486,11 +1477,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45914.6318809375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1507,36 +1496,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s"/>
-      <x:c r="E26" s="3">
-        <x:v>45914.6318809375</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
